--- a/packages/excel/province.xlsx
+++ b/packages/excel/province.xlsx
@@ -17,9 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Code">main!$A$1</definedName>
-    <definedName name="Name">main!$B$1</definedName>
-    <definedName name="PostalCode">main!$C$1</definedName>
+    <definedName name="_id.Code">main!$A$1</definedName>
+    <definedName name="Description">main!$E$1</definedName>
+    <definedName name="Name.en">main!$C$1</definedName>
+    <definedName name="Name.value">main!$B$1</definedName>
+    <definedName name="Name.vn">main!$D$1</definedName>
+    <definedName name="PostalCode">main!$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="142">
   <si>
     <t>Code</t>
   </si>
@@ -451,6 +454,12 @@
   </si>
   <si>
     <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Name (en)</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -576,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -601,12 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,19 +891,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="2" max="3" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,715 +913,1232 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="str">
+        <f>D2</f>
+        <v>An Giang</v>
+      </c>
+      <c r="C2" t="str">
+        <f>D2</f>
+        <v>An Giang</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="F2">
         <v>880000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B65" si="0">D3</f>
+        <v>Bà Rịa – Vũng Tàu</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C65" si="1">D3</f>
+        <v>Bà Rịa – Vũng Tàu</v>
+      </c>
+      <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="2">
+      <c r="F3">
         <v>790000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Bạc Liêu</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bạc Liêu</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="F4">
         <v>960000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bắc Kạn</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>Bắc Kạn</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5">
         <v>260000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bắc Giang</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>Bắc Giang</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="F6">
         <v>230000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Bắc Ninh</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>Bắc Ninh</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7">
         <v>220000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Bến Tre</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>Bến Tre</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8">
         <v>930000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Bình Dương</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Bình Dương</v>
+      </c>
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="F9">
         <v>820000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Bình Định</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>Bình Định</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="F10">
         <v>590000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Bình Phước</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>Bình Phước</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="F11">
         <v>830000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Bình Thuận</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>Bình Thuận</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="F12">
         <v>800000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Cà Mau</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>Cà Mau</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="F13">
         <v>970000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Cao Bằng</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>Cao Bằng</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="F14">
         <v>270000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Cần Thơ</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Cần Thơ</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1">
+      <c r="F15">
         <v>900000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Đà Nẵng</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>Đà Nẵng</v>
+      </c>
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="1">
+      <c r="F16">
         <v>550000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Đắk Lắk</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>Đắk Lắk</v>
+      </c>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
+      <c r="F17">
         <v>630000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Đắk Nông</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>Đắk Nông</v>
+      </c>
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
+      <c r="F18">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Điện Biên</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>Điện Biên</v>
+      </c>
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1">
+      <c r="F19">
         <v>380000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Đồng Nai</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>Đồng Nai</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1">
+      <c r="F20">
         <v>810000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Đồng Tháp</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>Đồng Tháp</v>
+      </c>
+      <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1">
+      <c r="F21">
         <v>870000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Gia Lai</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>Gia Lai</v>
+      </c>
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1">
+      <c r="F22">
         <v>600000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Hà Giang</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>Hà Giang</v>
+      </c>
+      <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1">
+      <c r="F23">
         <v>310000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Hà Nam</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>Hà Nam</v>
+      </c>
+      <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1">
+      <c r="F24">
         <v>400000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Hà Nội</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>Hà Nội</v>
+      </c>
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="F25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Hà Tĩnh</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>Hà Tĩnh</v>
+      </c>
+      <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="F26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Hải Dương</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>Hải Dương</v>
+      </c>
+      <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="1">
+      <c r="F27">
         <v>480000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Hải Phòng</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>Hải Phòng</v>
+      </c>
+      <c r="D28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="1">
+      <c r="F28">
         <v>170000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Hậu Giang</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>Hậu Giang</v>
+      </c>
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="1">
+      <c r="F29">
         <v>180000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Hòa Bình</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>Hòa Bình</v>
+      </c>
+      <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="1">
+      <c r="F30">
         <v>910000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Thành phố Hồ Chí Minh</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>Thành phố Hồ Chí Minh</v>
+      </c>
+      <c r="D31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="1">
+      <c r="F31">
         <v>350000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Hưng Yên</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>Hưng Yên</v>
+      </c>
+      <c r="D32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="F32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Khánh Hòa</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>Khánh Hòa</v>
+      </c>
+      <c r="D33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="1">
+      <c r="F33">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Kiên Giang</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>Kiên Giang</v>
+      </c>
+      <c r="D34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="1">
+      <c r="F34">
         <v>650000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Kon Tum</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>Kon Tum</v>
+      </c>
+      <c r="D35" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="1">
+      <c r="F35">
         <v>920000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Lai Châu</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>Lai Châu</v>
+      </c>
+      <c r="D36" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="2">
+      <c r="F36">
         <v>580000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Lạng Sơn</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>Lạng Sơn</v>
+      </c>
+      <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="1">
+      <c r="F37">
         <v>390000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Lào Cai</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>Lào Cai</v>
+      </c>
+      <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="1">
+      <c r="F38">
         <v>240000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Lâm Đồng</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>Lâm Đồng</v>
+      </c>
+      <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1">
+      <c r="F39">
         <v>330000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Long An</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>Long An</v>
+      </c>
+      <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="1">
+      <c r="F40">
         <v>670000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam Định</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>Nam Định</v>
+      </c>
+      <c r="D41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="1">
+      <c r="F41">
         <v>850000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Nghệ An</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>Nghệ An</v>
+      </c>
+      <c r="D42" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="1">
+      <c r="F42">
         <v>420000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Ninh Bình</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>Ninh Bình</v>
+      </c>
+      <c r="D43" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="F43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Ninh Thuận</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>Ninh Thuận</v>
+      </c>
+      <c r="D44" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="1">
+      <c r="F44">
         <v>430000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Phú Thọ</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>Phú Thọ</v>
+      </c>
+      <c r="D45" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="1">
+      <c r="F45">
         <v>660000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Phú Yên</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>Phú Yên</v>
+      </c>
+      <c r="D46" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="1">
+      <c r="F46">
         <v>290000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Quảng Bình</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>Quảng Bình</v>
+      </c>
+      <c r="D47" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="1">
+      <c r="F47">
         <v>620000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Quảng Nam</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>Quảng Nam</v>
+      </c>
+      <c r="D48" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="1">
+      <c r="F48">
         <v>510000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Quảng Ngãi</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>Quảng Ngãi</v>
+      </c>
+      <c r="D49" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="1">
+      <c r="F49">
         <v>560000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Quảng Ninh</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>Quảng Ninh</v>
+      </c>
+      <c r="D50" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="1">
+      <c r="F50">
         <v>570000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Quảng Trị</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>Quảng Trị</v>
+      </c>
+      <c r="D51" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="1">
+      <c r="F51">
         <v>200000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>Sóc Trăng</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>Sóc Trăng</v>
+      </c>
+      <c r="D52" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="1">
+      <c r="F52">
         <v>520000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>Sơn La</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>Sơn La</v>
+      </c>
+      <c r="D53" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="1">
+      <c r="F53">
         <v>950000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>Tây Ninh</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>Tây Ninh</v>
+      </c>
+      <c r="D54" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="1">
+      <c r="F54">
         <v>360000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>Thái Bình</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>Thái Bình</v>
+      </c>
+      <c r="D55" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="1">
+      <c r="F55">
         <v>840000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>Thái Nguyên</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>Thái Nguyên</v>
+      </c>
+      <c r="D56" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="1">
+      <c r="F56">
         <v>410000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>Thanh Hóa</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>Thanh Hóa</v>
+      </c>
+      <c r="D57" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="1">
+      <c r="F57">
         <v>250000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="12" t="s">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>Thừa Thiên – Huế</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>Thừa Thiên – Huế</v>
+      </c>
+      <c r="D59" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="1">
+      <c r="F59">
         <v>530000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>Tiền Giang</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>Tiền Giang</v>
+      </c>
+      <c r="D60" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="1">
+      <c r="F60">
         <v>860000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>Trà Vinh</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>Trà Vinh</v>
+      </c>
+      <c r="D61" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="1">
+      <c r="F61">
         <v>940000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuyên Quang</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuyên Quang</v>
+      </c>
+      <c r="D62" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="1">
+      <c r="F62">
         <v>300000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>Vĩnh Long</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>Vĩnh Long</v>
+      </c>
+      <c r="D63" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="1">
+      <c r="F63">
         <v>890000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>Vĩnh Phúc</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>Vĩnh Phúc</v>
+      </c>
+      <c r="D64" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="1">
+      <c r="F64">
         <v>280000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>Yên Bái</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>Yên Bái</v>
+      </c>
+      <c r="D65" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="1">
+      <c r="F65">
         <v>320000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B57:B58"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3503,12 +4025,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
